--- a/regions/4/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
+++ b/regions/4/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
@@ -4,41 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="აჭარა" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>წყარო:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან -  სამუშაო ძალის გამოკვლევა. </t>
-    </r>
-  </si>
-  <si>
-    <t>*2010-2019 წლების მონაცემები გადაანგარიშებულია შრომის საერთაშორისო  ორგანიზაციის (შსო) მიერ შრომის სტატისტიკოსთა  მე-20 საერთაშორისო კონფერენციაზე მიღებული სტანდარტების მიხედვით;
-2003-2009 წლების მონაცემები შეესაბამება შრომის სტატისტიკოსთა  მე-13 საერთაშორისო კონფერენციაზე მიღებულ სტანდარტებს.</t>
-  </si>
   <si>
     <t>მოსახლეობა სამუშაო ძალის გარეთ</t>
   </si>
@@ -68,9 +44,6 @@
   </si>
   <si>
     <t>აჭარის ავტონომიურ რესპუბლიკაში</t>
-  </si>
-  <si>
-    <t>სამუშაო ძალის მაჩვენებლები</t>
   </si>
   <si>
     <t>სამუშაო ძალის ინდიკატორები*</t>
@@ -117,6 +90,33 @@
       <t xml:space="preserve"> პროცენტი</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>წყარო:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან  -  სამუშაო ძალის გამოკვლევა. </t>
+    </r>
+  </si>
+  <si>
+    <t>*2010-2019 წლების მონაცემები გადაანგარიშებულია შრომის საერთაშორისო  ორგანიზაციის (შსო) მიერ შრომის სტატისტიკოსთა მე-19 და მე-20 საერთაშორისო კონფერენციებზე მიღებული სტანდარტების მიხედვით.
+2003-2009 წლების მონაცემები შეესაბამება შრომის სტატისტიკოსთა მე-13 საერთაშორისო კონფერენციაზე მიღებულ სტანდარტებს.</t>
+  </si>
+  <si>
+    <t>დასაქმება, უმუშევრობა</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +263,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,15 +315,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -400,22 +415,53 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal_Sheet2" xfId="4"/>
     <cellStyle name="Normal_Sheet3" xfId="3"/>
     <cellStyle name="Normal_Sheet5" xfId="5"/>
@@ -721,21 +767,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD25"/>
+  <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="23" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -776,29 +825,29 @@
       <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:16384" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="1"/>
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -17164,29 +17213,29 @@
       <c r="XFD3" s="1"/>
     </row>
     <row r="4" spans="1:16384" ht="15" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="1"/>
+      <c r="A4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
@@ -17206,8 +17255,10 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="Q5" s="6"/>
-      <c r="T5" s="7" t="s">
-        <v>10</v>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16384" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -17269,10 +17320,16 @@
       <c r="T6" s="15">
         <v>2021</v>
       </c>
+      <c r="U6" s="15">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:16384" ht="15" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="17">
         <v>263.12365893950448</v>
@@ -17331,10 +17388,17 @@
       <c r="T7" s="17">
         <v>266.27167379318979</v>
       </c>
+      <c r="U7" s="38">
+        <v>268.20986052605508</v>
+      </c>
+      <c r="V7" s="38">
+        <v>274.00595992537058</v>
+      </c>
+      <c r="X7"/>
     </row>
     <row r="8" spans="1:16384" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="20">
         <v>183.50649526778025</v>
@@ -17393,10 +17457,17 @@
       <c r="T8" s="20">
         <v>149.37222409398143</v>
       </c>
+      <c r="U8" s="39">
+        <v>151.71390386498527</v>
+      </c>
+      <c r="V8" s="39">
+        <v>158.99382594673176</v>
+      </c>
+      <c r="X8"/>
     </row>
     <row r="9" spans="1:16384" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="20">
         <v>156.80081707758819</v>
@@ -17455,10 +17526,17 @@
       <c r="T9" s="20">
         <v>120.71753138414518</v>
       </c>
+      <c r="U9" s="39">
+        <v>123.841747590674</v>
+      </c>
+      <c r="V9" s="39">
+        <v>139.57759529157624</v>
+      </c>
+      <c r="X9"/>
     </row>
     <row r="10" spans="1:16384" ht="15" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="20">
         <v>53.819626145323795</v>
@@ -17482,34 +17560,34 @@
         <v>50.208043200828236</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R10" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S10" s="20">
         <v>79.664898273320986</v>
@@ -17517,10 +17595,17 @@
       <c r="T10" s="20">
         <v>80.637190410084827</v>
       </c>
+      <c r="U10" s="39">
+        <v>81.185697054456682</v>
+      </c>
+      <c r="V10" s="39">
+        <v>94.109780845544705</v>
+      </c>
+      <c r="X10"/>
     </row>
     <row r="11" spans="1:16384" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="20">
         <v>102.98119093226457</v>
@@ -17544,34 +17629,34 @@
         <v>76.534373720143449</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11" s="20">
         <v>46.377817318447917</v>
@@ -17579,10 +17664,17 @@
       <c r="T11" s="20">
         <v>39.86729908475693</v>
       </c>
+      <c r="U11" s="39">
+        <v>42.348008552107416</v>
+      </c>
+      <c r="V11" s="39">
+        <v>45.382400215261562</v>
+      </c>
+      <c r="X11"/>
     </row>
     <row r="12" spans="1:16384" ht="15" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="20">
         <v>0</v>
@@ -17606,34 +17698,34 @@
         <v>2.5399201636663708E-2</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12" s="20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12" s="20">
         <v>7.1585090351851122E-2</v>
@@ -17641,10 +17733,17 @@
       <c r="T12" s="20">
         <v>0.21304188930339885</v>
       </c>
+      <c r="U12" s="39">
+        <v>0.30804198410926947</v>
+      </c>
+      <c r="V12" s="39">
+        <v>8.541423077028476E-2</v>
+      </c>
+      <c r="X12"/>
     </row>
     <row r="13" spans="1:16384" ht="15" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="20">
         <v>26.705678190191971</v>
@@ -17703,10 +17802,17 @@
       <c r="T13" s="20">
         <v>28.654692709836247</v>
       </c>
+      <c r="U13" s="39">
+        <v>27.872156274311468</v>
+      </c>
+      <c r="V13" s="39">
+        <v>19.416230655155736</v>
+      </c>
+      <c r="X13"/>
     </row>
     <row r="14" spans="1:16384" ht="15" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="20">
         <v>79.617163671722352</v>
@@ -17765,10 +17871,17 @@
       <c r="T14" s="20">
         <v>116.89944969920835</v>
       </c>
+      <c r="U14" s="39">
+        <v>116.49595666107119</v>
+      </c>
+      <c r="V14" s="39">
+        <v>115.01213397863904</v>
+      </c>
+      <c r="X14"/>
     </row>
     <row r="15" spans="1:16384" ht="15" customHeight="1">
       <c r="A15" s="26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="27">
         <v>14.55298797528771</v>
@@ -17827,10 +17940,17 @@
       <c r="T15" s="27">
         <v>19.183414375491523</v>
       </c>
+      <c r="U15" s="40">
+        <v>18.371524009503922</v>
+      </c>
+      <c r="V15" s="40">
+        <v>12.211940016878909</v>
+      </c>
+      <c r="X15"/>
     </row>
     <row r="16" spans="1:16384" ht="15" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="27">
         <v>69.741541299397468</v>
@@ -17889,10 +18009,17 @@
       <c r="T16" s="27">
         <v>56.097677220445597</v>
       </c>
+      <c r="U16" s="40">
+        <v>56.565371447351062</v>
+      </c>
+      <c r="V16" s="40">
+        <v>58.02568162752226</v>
+      </c>
+      <c r="X16"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="32">
         <v>59.592063180315812</v>
@@ -17951,8 +18078,15 @@
       <c r="T17" s="32">
         <v>45.33622734422179</v>
       </c>
+      <c r="U17" s="41">
+        <v>46.17345065083596</v>
+      </c>
+      <c r="V17" s="41">
+        <v>50.939620192784197</v>
+      </c>
+      <c r="X17"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -17976,69 +18110,76 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
+      <c r="X18"/>
     </row>
-    <row r="19" spans="1:23" ht="29.25" customHeight="1">
-      <c r="A19" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+    <row r="19" spans="1:26" s="46" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19"/>
+      <c r="Z19" s="47"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
-      <c r="A20" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+    <row r="20" spans="1:26" s="51" customFormat="1" ht="45" customHeight="1">
+      <c r="A20" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="49"/>
+      <c r="Z20"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+    <row r="21" spans="1:26" ht="15" customHeight="1">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
+    <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -18047,16 +18188,23 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+    <row r="23" spans="1:26">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:26">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -18072,29 +18220,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:23">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
